--- a/ARM-Lab/tables/Lab1_ExpectedResultsTable.xlsx
+++ b/ARM-Lab/tables/Lab1_ExpectedResultsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reese\Documents\GitHub\ARM-Lab\ARM-Lab\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E75792B-1FEE-4795-89B9-6DAFF5A6A90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A9777C-F55A-4336-B2B2-BBE692C755E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="5685" windowWidth="19320" windowHeight="11610" xr2:uid="{2EEAC87F-AC07-4F0F-96B3-36AE6E943B68}"/>
   </bookViews>
@@ -308,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -325,6 +325,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,8 +648,8 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,49 +847,49 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="17">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
         <v>527</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="18">
         <v>-8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="18">
         <v>77</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="18">
         <v>18</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
         <v>18</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="18">
         <v>981</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="18">
         <v>981</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="18">
         <v>981</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="18">
         <v>981</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="18">
         <v>345</v>
       </c>
     </row>

--- a/ARM-Lab/tables/Lab1_ExpectedResultsTable.xlsx
+++ b/ARM-Lab/tables/Lab1_ExpectedResultsTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reese\Documents\GitHub\ARM-Lab\ARM-Lab\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A9777C-F55A-4336-B2B2-BBE692C755E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D472E5-400B-443C-B231-3AD8E9DF590A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="5685" windowWidth="19320" windowHeight="11610" xr2:uid="{2EEAC87F-AC07-4F0F-96B3-36AE6E943B68}"/>
+    <workbookView xWindow="10110" yWindow="4725" windowWidth="19320" windowHeight="11610" xr2:uid="{2EEAC87F-AC07-4F0F-96B3-36AE6E943B68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K5" s="18">
         <v>981</v>
       </c>
       <c r="L5" s="18">
-        <v>981</v>
+        <v>0</v>
       </c>
       <c r="M5" s="18">
-        <v>981</v>
+        <v>0</v>
       </c>
       <c r="N5" s="18">
-        <v>981</v>
+        <v>0</v>
       </c>
       <c r="O5" s="18">
         <v>345</v>
